--- a/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>1659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3556</v>
+        <v>3714</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2632155659341985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06711615474810607</v>
+        <v>0.06744669859230105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5640482511576771</v>
+        <v>0.5891053951049314</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -762,19 +762,19 @@
         <v>7934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4521</v>
+        <v>4686</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12691</v>
+        <v>12856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2109141835895621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1201818951383821</v>
+        <v>0.1245711133324938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.337387082935668</v>
+        <v>0.3417654990442973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -783,19 +783,19 @@
         <v>9593</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5886</v>
+        <v>5908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14752</v>
+        <v>14059</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2184211056340691</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1340047433055191</v>
+        <v>0.1345054551502357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3358582490304765</v>
+        <v>0.3200827151765036</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4032</v>
+        <v>4052</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3521479239434989</v>
+        <v>0.3521479239434988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0913141525697647</v>
+        <v>0.08686469448265739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6395301710232486</v>
+        <v>0.6426922000367455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -833,19 +833,19 @@
         <v>8887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5470</v>
+        <v>5002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13529</v>
+        <v>13465</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2362487213813048</v>
+        <v>0.2362487213813049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1454229214441987</v>
+        <v>0.1329620003729306</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3596385704317611</v>
+        <v>0.3579516182455444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>11107</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7137</v>
+        <v>6977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15793</v>
+        <v>16258</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2528839657983989</v>
+        <v>0.2528839657983988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1624953538148555</v>
+        <v>0.1588578899052155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3595719161223926</v>
+        <v>0.3701465545983598</v>
       </c>
     </row>
     <row r="6">
@@ -896,19 +896,19 @@
         <v>2210</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6786</v>
+        <v>6974</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.05875906578536368</v>
+        <v>0.0587590657853637</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01477167488491221</v>
+        <v>0.01488189664849348</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1804038940100306</v>
+        <v>0.1854032614216358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -917,19 +917,19 @@
         <v>2210</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6437</v>
+        <v>6540</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05032525951706684</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01022882283603022</v>
+        <v>0.009472808895971312</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1465572412806371</v>
+        <v>0.1488987031724867</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3617</v>
+        <v>3376</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2208949728315732</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5737392960905973</v>
+        <v>0.5355549774497673</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -967,19 +967,19 @@
         <v>9454</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5508</v>
+        <v>5429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14524</v>
+        <v>14700</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2513302954211841</v>
+        <v>0.2513302954211842</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1464306394736347</v>
+        <v>0.1443187126328663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3861150731160179</v>
+        <v>0.3907779370962842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -988,19 +988,19 @@
         <v>10847</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6363</v>
+        <v>6407</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16793</v>
+        <v>16367</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2469618526795734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1448719359281697</v>
+        <v>0.1458678865257007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3823327018924068</v>
+        <v>0.3726314409901855</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3072</v>
+        <v>2972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1637415372907294</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4872738650475175</v>
+        <v>0.4714713238852377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -1038,19 +1038,19 @@
         <v>9131</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5497</v>
+        <v>5421</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13650</v>
+        <v>13705</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2427477338225852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.146136524394587</v>
+        <v>0.1441071588814447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3628677932211995</v>
+        <v>0.364331579532956</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -1059,19 +1059,19 @@
         <v>10164</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6542</v>
+        <v>6087</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14892</v>
+        <v>14813</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2314078163708916</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1489418535380377</v>
+        <v>0.1385810729540282</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3390542949737653</v>
+        <v>0.3372637363363793</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3282</v>
+        <v>2708</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06722019980514178</v>
+        <v>0.06722019980514179</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3617824054811376</v>
+        <v>0.2984232955026224</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2178</v>
+        <v>2112</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05032779281489114</v>
+        <v>0.05032779281489113</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.239869993824169</v>
+        <v>0.2325268105093118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3350</v>
+        <v>3166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05876957513452309</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1845296885135791</v>
+        <v>0.1743868026472684</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>4280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1650</v>
+        <v>1594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6554</v>
+        <v>6555</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4717087080215138</v>
+        <v>0.4717087080215139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1818669573081854</v>
+        <v>0.1756312429928818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7223580082027498</v>
+        <v>0.7224283537705237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1255,19 +1255,19 @@
         <v>5275</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3175</v>
+        <v>3273</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7201</v>
+        <v>7288</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5808474611587586</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3495630493083424</v>
+        <v>0.3603470019068919</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7928801215316185</v>
+        <v>0.8024214449708281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1276,19 +1276,19 @@
         <v>9555</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6365</v>
+        <v>6025</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12848</v>
+        <v>12815</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5263066489966787</v>
+        <v>0.5263066489966786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3505923283664453</v>
+        <v>0.3318840252240905</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7076593570685282</v>
+        <v>0.7058403384965736</v>
       </c>
     </row>
     <row r="12">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3601</v>
+        <v>3666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1268932254739208</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3969418514891714</v>
+        <v>0.4040876019023562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1373,19 +1373,19 @@
         <v>2970</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1063</v>
+        <v>989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5213</v>
+        <v>5141</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3270154315999087</v>
+        <v>0.3270154315999086</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1169962692596913</v>
+        <v>0.1088614953868888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5739539073872322</v>
+        <v>0.5661154393921206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1394,19 +1394,19 @@
         <v>4121</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1740</v>
+        <v>1837</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7358</v>
+        <v>7861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2270067056430262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09583859370385926</v>
+        <v>0.1012075693073634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4052856742881916</v>
+        <v>0.433008917002636</v>
       </c>
     </row>
     <row r="14">
@@ -1423,19 +1423,19 @@
         <v>3032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1113</v>
+        <v>1171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5972</v>
+        <v>5639</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3341778666994235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.122697760877585</v>
+        <v>0.1290596302268063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6582129274258586</v>
+        <v>0.6215565604543586</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1447,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2591</v>
+        <v>2087</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.04180931442644154</v>
+        <v>0.04180931442644153</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2852650573667756</v>
+        <v>0.2297980192951393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1465,19 +1465,19 @@
         <v>3412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1273</v>
+        <v>1342</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6425</v>
+        <v>6843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1879170702257722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07013870573332485</v>
+        <v>0.07390582698854041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3539186243566004</v>
+        <v>0.3769414087960561</v>
       </c>
     </row>
     <row r="15">
@@ -1847,19 +1847,19 @@
         <v>2269</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>853</v>
+        <v>790</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5063</v>
+        <v>5021</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1475728464921347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05549919577643412</v>
+        <v>0.05135073173355617</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3292897631433143</v>
+        <v>0.3265185631179519</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -1868,19 +1868,19 @@
         <v>8391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5110</v>
+        <v>4980</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12698</v>
+        <v>13078</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1772076500610974</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1079255213109347</v>
+        <v>0.1051774473368052</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2681545116949612</v>
+        <v>0.2761875852497174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -1889,19 +1889,19 @@
         <v>10660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6973</v>
+        <v>6392</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16504</v>
+        <v>15463</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1699431538362318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.111161629463622</v>
+        <v>0.1018943414641384</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.263092410744687</v>
+        <v>0.2465089943357607</v>
       </c>
     </row>
     <row r="23">
@@ -1918,19 +1918,19 @@
         <v>6500</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3432</v>
+        <v>3573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9678</v>
+        <v>9740</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4226921132398053</v>
+        <v>0.4226921132398054</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2231964019109675</v>
+        <v>0.2323744169386474</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6294051647483013</v>
+        <v>0.6333981952944047</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -1939,19 +1939,19 @@
         <v>14163</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9629</v>
+        <v>9468</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19048</v>
+        <v>19335</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2990904299390438</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2033457854336364</v>
+        <v>0.1999445857258669</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4022673226927945</v>
+        <v>0.4083191475823811</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>37</v>
@@ -1960,19 +1960,19 @@
         <v>20662</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15715</v>
+        <v>15256</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27486</v>
+        <v>27657</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3293893978277937</v>
+        <v>0.3293893978277938</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2505211043689401</v>
+        <v>0.2432011486084057</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4381687048844333</v>
+        <v>0.4408912732866342</v>
       </c>
     </row>
     <row r="24">
@@ -2002,19 +2002,19 @@
         <v>2210</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6759</v>
+        <v>6853</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04667939504220842</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009112756437644195</v>
+        <v>0.008647047532073225</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1427415612818623</v>
+        <v>0.1447344468456234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2023,19 +2023,19 @@
         <v>2210</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6575</v>
+        <v>6531</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03523669091649984</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006424362771888652</v>
+        <v>0.006574232060284624</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.104817499561742</v>
+        <v>0.1041082311573849</v>
       </c>
     </row>
     <row r="25">
@@ -2052,19 +2052,19 @@
         <v>2544</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5681</v>
+        <v>5549</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.16543132636155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04336340721255699</v>
+        <v>0.04801209675282248</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3694391749249263</v>
+        <v>0.3608427237056753</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2073,19 +2073,19 @@
         <v>12424</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7969</v>
+        <v>7634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18034</v>
+        <v>18232</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2623851983250975</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1683014274783376</v>
+        <v>0.1612153488362398</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3808431377434</v>
+        <v>0.3850367997220994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -2094,19 +2094,19 @@
         <v>14968</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9791</v>
+        <v>9746</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21012</v>
+        <v>20823</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2386185134801557</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1560885388405704</v>
+        <v>0.1553632403986053</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3349638966851518</v>
+        <v>0.3319445316070062</v>
       </c>
     </row>
     <row r="26">
@@ -2123,19 +2123,19 @@
         <v>4064</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1726</v>
+        <v>1832</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7238</v>
+        <v>7461</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.26430371390651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.112267593399009</v>
+        <v>0.119164766064563</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4707164265228482</v>
+        <v>0.4852244890218781</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2144,19 +2144,19 @@
         <v>10164</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6581</v>
+        <v>6510</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14930</v>
+        <v>15167</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2146373266325527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1389764221352889</v>
+        <v>0.137482653443179</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3153001973777188</v>
+        <v>0.3203109930076976</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2165,19 +2165,19 @@
         <v>14228</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9529</v>
+        <v>9414</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19718</v>
+        <v>19519</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2268122439393187</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1519023064265319</v>
+        <v>0.1500817354547207</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3143308491716217</v>
+        <v>0.3111651353794506</v>
       </c>
     </row>
     <row r="27">
